--- a/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-BANCOS-PYME.xlsx
+++ b/FUENTES-DE-DATOS/ASFI/SiglasEntidadesFinancieras/SIGLAS-BANCOS-PYME.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\siglas-entidades-financieras\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\INVESTIGACION-PARA-OBTENER-EL-GRADO-DE-LICENCIATURA-EN-INGENIERIA-FINANCIERA-UMSS\FUENTES-DE-DATOS\ASFI\SiglasEntidadesFinancieras\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9E2B1A-F714-498B-BBCA-24C73E0BB66E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B2D8F22-4CD6-40A2-9A52-18B86742062A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1905" yWindow="1905" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>SIGLA</t>
   </si>
@@ -37,6 +37,18 @@
   </si>
   <si>
     <t>Banco PYME de la Comunidad S.A.</t>
+  </si>
+  <si>
+    <t>PEF</t>
+  </si>
+  <si>
+    <t>Banco PYME Ecofuturo S.A.</t>
+  </si>
+  <si>
+    <t>PLA</t>
+  </si>
+  <si>
+    <t>Banco PYME Los Andes ProCredit S.A.</t>
   </si>
 </sst>
 </file>
@@ -354,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
@@ -378,6 +390,22 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
